--- a/NBASEASONSUMMARY/NBA2018-2019.xlsx
+++ b/NBASEASONSUMMARY/NBA2018-2019.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>TEAM</t>
   </si>
@@ -91,7 +91,7 @@
     <t>PFD</t>
   </si>
   <si>
-    <t>plus</t>
+    <t>plus/minus</t>
   </si>
   <si>
     <t>Washington Wizards</t>
@@ -158,13 +158,37 @@
   </si>
   <si>
     <t>Detroit Pistons</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Dallas Mavericks</t>
+  </si>
+  <si>
+    <t>Cleveland Cavaliers</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Charlotte Hornets</t>
+  </si>
+  <si>
+    <t>Brooklyn Nets</t>
+  </si>
+  <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Atlanta Hawks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -186,6 +210,13 @@
     <font>
       <u/>
       <color rgb="FF1570B5"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -227,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -249,7 +280,15 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -2375,8 +2414,669 @@
         <v>-0.2</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="C24" s="8">
+        <v>54.0</v>
+      </c>
+      <c r="D24" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>0.659</v>
+      </c>
+      <c r="F24" s="8">
+        <v>48.1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>110.7</v>
+      </c>
+      <c r="H24" s="8">
+        <v>41.9</v>
+      </c>
+      <c r="I24" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>46.6</v>
+      </c>
+      <c r="K24" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>31.4</v>
+      </c>
+      <c r="M24" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="N24" s="8">
+        <v>15.8</v>
+      </c>
+      <c r="O24" s="8">
+        <v>20.9</v>
+      </c>
+      <c r="P24" s="8">
+        <v>75.5</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>11.9</v>
+      </c>
+      <c r="R24" s="8">
+        <v>34.5</v>
+      </c>
+      <c r="S24" s="8">
+        <v>46.4</v>
+      </c>
+      <c r="T24" s="8">
+        <v>27.4</v>
+      </c>
+      <c r="U24" s="8">
+        <v>13.4</v>
+      </c>
+      <c r="V24" s="8">
+        <v>7.7</v>
+      </c>
+      <c r="W24" s="8">
+        <v>4.4</v>
+      </c>
+      <c r="X24" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="Z24" s="8">
+        <v>20.4</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>4.0</v>
+      </c>
+    </row>
     <row r="25">
-      <c r="A25" s="7"/>
+      <c r="A25" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="D25" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.402</v>
+      </c>
+      <c r="F25" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>108.9</v>
+      </c>
+      <c r="H25" s="8">
+        <v>38.8</v>
+      </c>
+      <c r="I25" s="8">
+        <v>86.9</v>
+      </c>
+      <c r="J25" s="8">
+        <v>44.7</v>
+      </c>
+      <c r="K25" s="8">
+        <v>12.5</v>
+      </c>
+      <c r="L25" s="8">
+        <v>36.6</v>
+      </c>
+      <c r="M25" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="N25" s="8">
+        <v>18.8</v>
+      </c>
+      <c r="O25" s="8">
+        <v>25.3</v>
+      </c>
+      <c r="P25" s="8">
+        <v>74.2</v>
+      </c>
+      <c r="Q25" s="8">
+        <v>10.1</v>
+      </c>
+      <c r="R25" s="8">
+        <v>35.2</v>
+      </c>
+      <c r="S25" s="8">
+        <v>45.3</v>
+      </c>
+      <c r="T25" s="8">
+        <v>23.4</v>
+      </c>
+      <c r="U25" s="8">
+        <v>14.2</v>
+      </c>
+      <c r="V25" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="W25" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="X25" s="8">
+        <v>4.5</v>
+      </c>
+      <c r="Y25" s="8">
+        <v>20.1</v>
+      </c>
+      <c r="Z25" s="8">
+        <v>23.2</v>
+      </c>
+      <c r="AA25" s="8">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="C26" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="D26" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="E26" s="8">
+        <v>0.232</v>
+      </c>
+      <c r="F26" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="G26" s="8">
+        <v>104.5</v>
+      </c>
+      <c r="H26" s="8">
+        <v>38.9</v>
+      </c>
+      <c r="I26" s="8">
+        <v>87.6</v>
+      </c>
+      <c r="J26" s="8">
+        <v>44.4</v>
+      </c>
+      <c r="K26" s="8">
+        <v>10.3</v>
+      </c>
+      <c r="L26" s="8">
+        <v>29.1</v>
+      </c>
+      <c r="M26" s="8">
+        <v>35.5</v>
+      </c>
+      <c r="N26" s="8">
+        <v>16.4</v>
+      </c>
+      <c r="O26" s="8">
+        <v>20.7</v>
+      </c>
+      <c r="P26" s="8">
+        <v>79.2</v>
+      </c>
+      <c r="Q26" s="8">
+        <v>10.7</v>
+      </c>
+      <c r="R26" s="8">
+        <v>31.9</v>
+      </c>
+      <c r="S26" s="8">
+        <v>42.7</v>
+      </c>
+      <c r="T26" s="8">
+        <v>20.7</v>
+      </c>
+      <c r="U26" s="8">
+        <v>13.5</v>
+      </c>
+      <c r="V26" s="8">
+        <v>6.5</v>
+      </c>
+      <c r="W26" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="X26" s="8">
+        <v>5.6</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>19.4</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>-9.6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="C27" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.268</v>
+      </c>
+      <c r="F27" s="8">
+        <v>48.5</v>
+      </c>
+      <c r="G27" s="8">
+        <v>104.9</v>
+      </c>
+      <c r="H27" s="8">
+        <v>39.8</v>
+      </c>
+      <c r="I27" s="8">
+        <v>87.9</v>
+      </c>
+      <c r="J27" s="8">
+        <v>45.3</v>
+      </c>
+      <c r="K27" s="8">
+        <v>9.1</v>
+      </c>
+      <c r="L27" s="8">
+        <v>25.9</v>
+      </c>
+      <c r="M27" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="N27" s="8">
+        <v>16.2</v>
+      </c>
+      <c r="O27" s="8">
+        <v>20.7</v>
+      </c>
+      <c r="P27" s="8">
+        <v>78.3</v>
+      </c>
+      <c r="Q27" s="8">
+        <v>8.8</v>
+      </c>
+      <c r="R27" s="8">
+        <v>34.1</v>
+      </c>
+      <c r="S27" s="8">
+        <v>42.9</v>
+      </c>
+      <c r="T27" s="8">
+        <v>21.9</v>
+      </c>
+      <c r="U27" s="8">
+        <v>14.1</v>
+      </c>
+      <c r="V27" s="8">
+        <v>7.4</v>
+      </c>
+      <c r="W27" s="8">
+        <v>4.3</v>
+      </c>
+      <c r="X27" s="8">
+        <v>5.8</v>
+      </c>
+      <c r="Y27" s="8">
+        <v>20.3</v>
+      </c>
+      <c r="Z27" s="8">
+        <v>18.7</v>
+      </c>
+      <c r="AA27" s="8">
+        <v>-8.4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="C28" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.476</v>
+      </c>
+      <c r="F28" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="G28" s="8">
+        <v>110.7</v>
+      </c>
+      <c r="H28" s="8">
+        <v>40.2</v>
+      </c>
+      <c r="I28" s="8">
+        <v>89.8</v>
+      </c>
+      <c r="J28" s="8">
+        <v>44.8</v>
+      </c>
+      <c r="K28" s="8">
+        <v>11.9</v>
+      </c>
+      <c r="L28" s="8">
+        <v>33.9</v>
+      </c>
+      <c r="M28" s="8">
+        <v>35.1</v>
+      </c>
+      <c r="N28" s="8">
+        <v>18.4</v>
+      </c>
+      <c r="O28" s="8">
+        <v>23.1</v>
+      </c>
+      <c r="P28" s="8">
+        <v>79.7</v>
+      </c>
+      <c r="Q28" s="8">
+        <v>9.9</v>
+      </c>
+      <c r="R28" s="8">
+        <v>33.9</v>
+      </c>
+      <c r="S28" s="8">
+        <v>43.8</v>
+      </c>
+      <c r="T28" s="8">
+        <v>23.2</v>
+      </c>
+      <c r="U28" s="8">
+        <v>12.2</v>
+      </c>
+      <c r="V28" s="8">
+        <v>7.2</v>
+      </c>
+      <c r="W28" s="8">
+        <v>4.9</v>
+      </c>
+      <c r="X28" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="Y28" s="8">
+        <v>18.9</v>
+      </c>
+      <c r="Z28" s="8">
+        <v>20.6</v>
+      </c>
+      <c r="AA28" s="8">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="C29" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="D29" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.512</v>
+      </c>
+      <c r="F29" s="8">
+        <v>48.7</v>
+      </c>
+      <c r="G29" s="8">
+        <v>112.2</v>
+      </c>
+      <c r="H29" s="8">
+        <v>40.3</v>
+      </c>
+      <c r="I29" s="8">
+        <v>89.7</v>
+      </c>
+      <c r="J29" s="8">
+        <v>44.9</v>
+      </c>
+      <c r="K29" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="L29" s="8">
+        <v>36.2</v>
+      </c>
+      <c r="M29" s="8">
+        <v>35.3</v>
+      </c>
+      <c r="N29" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>25.5</v>
+      </c>
+      <c r="P29" s="8">
+        <v>74.5</v>
+      </c>
+      <c r="Q29" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="R29" s="8">
+        <v>35.6</v>
+      </c>
+      <c r="S29" s="8">
+        <v>46.6</v>
+      </c>
+      <c r="T29" s="8">
+        <v>23.8</v>
+      </c>
+      <c r="U29" s="8">
+        <v>15.1</v>
+      </c>
+      <c r="V29" s="8">
+        <v>6.6</v>
+      </c>
+      <c r="W29" s="8">
+        <v>4.1</v>
+      </c>
+      <c r="X29" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="Y29" s="8">
+        <v>21.5</v>
+      </c>
+      <c r="Z29" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="AA29" s="8">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="C30" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="D30" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.598</v>
+      </c>
+      <c r="F30" s="8">
+        <v>48.2</v>
+      </c>
+      <c r="G30" s="8">
+        <v>112.4</v>
+      </c>
+      <c r="H30" s="8">
+        <v>42.1</v>
+      </c>
+      <c r="I30" s="8">
+        <v>90.5</v>
+      </c>
+      <c r="J30" s="8">
+        <v>46.5</v>
+      </c>
+      <c r="K30" s="8">
+        <v>12.6</v>
+      </c>
+      <c r="L30" s="8">
+        <v>34.5</v>
+      </c>
+      <c r="M30" s="8">
+        <v>36.5</v>
+      </c>
+      <c r="N30" s="8">
+        <v>15.6</v>
+      </c>
+      <c r="O30" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="P30" s="8">
+        <v>80.2</v>
+      </c>
+      <c r="Q30" s="8">
+        <v>9.8</v>
+      </c>
+      <c r="R30" s="8">
+        <v>34.7</v>
+      </c>
+      <c r="S30" s="8">
+        <v>44.5</v>
+      </c>
+      <c r="T30" s="8">
+        <v>26.3</v>
+      </c>
+      <c r="U30" s="8">
+        <v>12.8</v>
+      </c>
+      <c r="V30" s="8">
+        <v>8.6</v>
+      </c>
+      <c r="W30" s="8">
+        <v>5.3</v>
+      </c>
+      <c r="X30" s="8">
+        <v>3.9</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>20.4</v>
+      </c>
+      <c r="Z30" s="8">
+        <v>19.5</v>
+      </c>
+      <c r="AA30" s="8">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B31" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="C31" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="D31" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.354</v>
+      </c>
+      <c r="F31" s="8">
+        <v>48.4</v>
+      </c>
+      <c r="G31" s="8">
+        <v>113.3</v>
+      </c>
+      <c r="H31" s="8">
+        <v>41.4</v>
+      </c>
+      <c r="I31" s="8">
+        <v>91.8</v>
+      </c>
+      <c r="J31" s="8">
+        <v>45.1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="L31" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="M31" s="8">
+        <v>35.2</v>
+      </c>
+      <c r="N31" s="8">
+        <v>17.6</v>
+      </c>
+      <c r="O31" s="8">
+        <v>23.4</v>
+      </c>
+      <c r="P31" s="8">
+        <v>75.2</v>
+      </c>
+      <c r="Q31" s="8">
+        <v>11.6</v>
+      </c>
+      <c r="R31" s="8">
+        <v>34.5</v>
+      </c>
+      <c r="S31" s="8">
+        <v>46.1</v>
+      </c>
+      <c r="T31" s="8">
+        <v>25.8</v>
+      </c>
+      <c r="U31" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="V31" s="8">
+        <v>8.2</v>
+      </c>
+      <c r="W31" s="8">
+        <v>5.1</v>
+      </c>
+      <c r="X31" s="8">
+        <v>5.5</v>
+      </c>
+      <c r="Y31" s="8">
+        <v>23.6</v>
+      </c>
+      <c r="Z31" s="8">
+        <v>22.2</v>
+      </c>
+      <c r="AA31" s="8">
+        <v>-6.0</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
